--- a/springboot/src/main/resources/flow/2023-04-10_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-10_1.xlsx
@@ -996,8 +996,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/springboot/src/main/resources/flow/2023-04-10_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-10_1.xlsx
@@ -996,8 +996,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
